--- a/biology/Médecine/Midnight_Family/Midnight_Family.xlsx
+++ b/biology/Médecine/Midnight_Family/Midnight_Family.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Midgnight Family est un film documentaire mexicain, écrit et réalisé par Luke Lorentzen, sorti en 2019. Il décrit le quotidien de la famille Ochoa (Fer Ochoa, Josue Ochoa et Juan Ochoa) qui pilote un service d'ambulance privée dans la ville de Mexico[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Midgnight Family est un film documentaire mexicain, écrit et réalisé par Luke Lorentzen, sorti en 2019. Il décrit le quotidien de la famille Ochoa (Fer Ochoa, Josue Ochoa et Juan Ochoa) qui pilote un service d'ambulance privée dans la ville de Mexico,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Midnight Family dépeint l'écosystème frénétique des urgences nocturnes de la ville de Mexico. La famille Ochoa tente chaque nuit, au volant de leur ambulance lancée à pleine vitesse, d'être la première à répondre aux patients gravement blessés. 
 Dans une ville où le gouvernement ne gère que 45 ambulances d'urgence pour une population de plus de neuf millions d'habitants, la famille agit comme un radeau de sauvetage, non enregistré et à la limite de l'illégalité. Leur chemin est criblé de pots-de-vin de la police et entravé par une concurrence acharnée. 
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,6 +587,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
